--- a/ExportedCSVFiles/CS4125-2.xlsx
+++ b/ExportedCSVFiles/CS4125-2.xlsx
@@ -56,6 +56,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="mmm d yyyy hh:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -85,8 +88,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -386,6 +390,9 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="9" max="9" width="25.7109375" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
@@ -412,7 +419,7 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -441,7 +448,7 @@
       <c r="H2" t="s">
         <v>11</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="1">
         <v>43932.86435221091</v>
       </c>
     </row>
